--- a/src/main/resources/VARCalculator.xlsx
+++ b/src/main/resources/VARCalculator.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
